--- a/dados_footystats_USA MLS_2025_2024_2.xlsx
+++ b/dados_footystats_USA MLS_2025_2024_2.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25c973f59c1bd7de/Documents/Banco de Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{C5AF65C6-4301-422B-9B2D-181D99FC5228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40BE2EE9-1D2D-4AF6-BBD8-E109DDBA86D1}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{C5AF65C6-4301-422B-9B2D-181D99FC5228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94F6A14A-2CF6-4075-B4B8-C946FEDB18F2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{E670E3CA-69A1-4681-83EB-C82EC9B25033}"/>
+    <workbookView xWindow="4890" yWindow="120" windowWidth="28230" windowHeight="15360" xr2:uid="{E670E3CA-69A1-4681-83EB-C82EC9B25033}"/>
   </bookViews>
   <sheets>
-    <sheet name="dados_footystats_USA MLS_2025_2" sheetId="1" r:id="rId1"/>
+    <sheet name="Jogos" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -842,7 +842,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Luis" refreshedDate="45823.516453703705" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1311" xr:uid="{26D9FD07-B705-4318-B6CD-B86895342002}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:R1048576" sheet="dados_footystats_USA MLS_2025_2"/>
+    <worksheetSource ref="A1:R1048576" sheet="Jogos"/>
   </cacheSource>
   <cacheFields count="20">
     <cacheField name="season" numFmtId="0">
@@ -30118,7 +30118,7 @@
   <dimension ref="A1:R1311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
